--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3778896.142646227</v>
+        <v>3776351.549951944</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>158.9209832102738</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>165.1725371760947</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>130.4949840230017</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443454</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425901</v>
+        <v>23.94240680425909</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>140.9245044400191</v>
+        <v>108.3453157090787</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074796</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115064</v>
+        <v>29.43305940534577</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>216.14806681973</v>
       </c>
       <c r="W7" t="n">
-        <v>79.77074001252495</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>60.64560821255617</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1181,25 +1181,25 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>225.7776513630635</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969731</v>
       </c>
     </row>
     <row r="10">
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>246.4412936084437</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>185.9158911817642</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,22 +1658,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.24923305751745</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695426</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107124</v>
+        <v>126.0773463611705</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>511.862417143344</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268591</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268591</v>
+        <v>133.022847110374</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268591</v>
+        <v>133.022847110374</v>
       </c>
       <c r="W2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="X2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>133.022847110374</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140246</v>
@@ -4422,34 +4422,34 @@
         <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>676.9378076264281</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652803</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487954</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323105</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323105</v>
+        <v>525.6547321810244</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897905</v>
+        <v>336.2349471645396</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>146.8151621480548</v>
       </c>
       <c r="Y3" t="n">
         <v>15.0020469733056</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.7078548501139</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="C5" t="n">
-        <v>843.7078548501139</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="D5" t="n">
-        <v>843.7078548501139</v>
+        <v>439.6674508097098</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518697</v>
+        <v>53.87919821146558</v>
       </c>
       <c r="F5" t="n">
-        <v>450.9741015026662</v>
+        <v>46.9336974622621</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017219</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.980716674698</v>
+        <v>277.9807166746976</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030768</v>
+        <v>521.2049416030761</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709187</v>
+        <v>823.5081935709179</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079239</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837884</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540654</v>
+        <v>1703.718566540653</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540654</v>
+        <v>1562.810726301001</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540654</v>
+        <v>1562.810726301001</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540654</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.655679197083</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="W5" t="n">
-        <v>1372.655679197083</v>
+        <v>1309.172761972365</v>
       </c>
       <c r="X5" t="n">
-        <v>1372.655679197083</v>
+        <v>935.7070037112849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.307694914236</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787544</v>
+        <v>61.66788464787535</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806066</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189984</v>
+        <v>399.872217118998</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223508</v>
+        <v>668.6238185223503</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352489</v>
+        <v>958.8971200352482</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.17623363951</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906551</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906551</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906551</v>
+        <v>1062.768760419124</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906551</v>
+        <v>834.6536183746806</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906551</v>
+        <v>599.5015101429378</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>569.771147107235</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>569.771147107235</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574702</v>
+        <v>64.24066662574693</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584118</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347975</v>
+        <v>206.9680378347973</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195371</v>
+        <v>287.8841338195367</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934723</v>
+        <v>342.3101561934718</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858005</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858011</v>
+        <v>369.8190495858005</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.8894369427476</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.8894369427476</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.8894369427476</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858011</v>
+        <v>252.8894369427476</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1345613799142</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675768</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>914.2613974809506</v>
+        <v>588.304919212072</v>
       </c>
       <c r="C8" t="n">
-        <v>545.2988805405388</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405388</v>
+        <v>527.0467290983789</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405388</v>
+        <v>141.2584765001347</v>
       </c>
       <c r="F8" t="n">
         <v>134.3129757509312</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.092940094635</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="V8" t="n">
-        <v>1267.030052751065</v>
+        <v>1704.678664719078</v>
       </c>
       <c r="W8" t="n">
-        <v>914.2613974809506</v>
+        <v>1351.910009448964</v>
       </c>
       <c r="X8" t="n">
-        <v>914.2613974809506</v>
+        <v>978.4442511878838</v>
       </c>
       <c r="Y8" t="n">
-        <v>914.2613974809506</v>
+        <v>588.304919212072</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1197.399957077438</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>943.1626003492363</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>735.3111001437035</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4993,13 +4993,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W10" t="n">
-        <v>271.3587474361104</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X10" t="n">
         <v>43.36919653809306</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191922</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718139</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270434</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684974</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438182</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121634</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121634</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121634</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270434</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191924</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.067041434951</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,31 +5738,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616109</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.83088743627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,49 +6227,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,10 +6464,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.067041434951</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616109</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.388077746847</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143764</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143764</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.043492616109</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.2652634529499</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>640787.2138850624</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977556</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208455</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253127</v>
+        <v>270592.3620253124</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231926</v>
+        <v>115410.054023193</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742647</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854445</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881977</v>
+        <v>62913.63765881969</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197483</v>
+        <v>27875.25362197487</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263461</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189211</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189191</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189202</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189202</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189206</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936821</v>
+        <v>76435.73471936818</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126363.5421489128</v>
+        <v>-126363.5421489124</v>
       </c>
       <c r="C6" t="n">
         <v>246883.2059466493</v>
       </c>
       <c r="D6" t="n">
-        <v>425703.5996497138</v>
+        <v>425703.5996497133</v>
       </c>
       <c r="E6" t="n">
-        <v>68355.613327692</v>
+        <v>68320.87540225612</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019565</v>
+        <v>669764.082976521</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.8209019565</v>
+        <v>669764.0829765215</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.8209019568</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="J6" t="n">
-        <v>620733.8761734124</v>
+        <v>620699.1382479767</v>
       </c>
       <c r="K6" t="n">
-        <v>606885.1832431369</v>
+        <v>606850.4453177013</v>
       </c>
       <c r="L6" t="n">
-        <v>641923.5672799817</v>
+        <v>641888.8293545461</v>
       </c>
       <c r="M6" t="n">
-        <v>512652.4403503587</v>
+        <v>512617.7024249226</v>
       </c>
       <c r="N6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="O6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765212</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019565</v>
+        <v>669764.0829765209</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950619</v>
+        <v>758.8996292950616</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594714</v>
+        <v>431.975703959471</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261633</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.71520736928637e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821572</v>
+        <v>210.429688382157</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262221</v>
+        <v>94.81103524262255</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039892</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.450116793151</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.1392527666923</v>
+      </c>
+      <c r="E4" t="n">
+        <v>630.5933313734851</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="C4" t="n">
-        <v>244.4501167931514</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.1392527666919</v>
-      </c>
-      <c r="E4" t="n">
-        <v>630.5933313734846</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663198</v>
-      </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666921</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734845</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931514</v>
+        <v>244.450116793151</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666919</v>
+        <v>110.1392527666923</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.1332868360718</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988671</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>190.3199855071392</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27479,7 +27479,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>86.52244598482486</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715741</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>75.18771175430265</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213463</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760036</v>
+        <v>92.85788772760041</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.3134342160345</v>
+        <v>277.8926229469748</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27713,7 +27713,7 @@
         <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937512</v>
+        <v>43.32085084937515</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007479</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941317</v>
+        <v>222.2619237555738</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304045</v>
+        <v>30.24193919304049</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058915</v>
+        <v>36.91115760589155</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,10 +27831,10 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>35.98957650409801</v>
       </c>
       <c r="W7" t="n">
-        <v>206.752258324066</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.6272835584514</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>25.29344133105229</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576071</v>
       </c>
     </row>
     <row r="10">
@@ -28065,16 +28065,16 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>40.08170472814726</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>39.79376420727294</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>1.029213235126359e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.440674018558035e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,16 +29281,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,22 +30223,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-5.488330096905602e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085674</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520271</v>
+        <v>388.0799144520269</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511779</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968102</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.37128886107</v>
+        <v>544.3712888610696</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191492</v>
+        <v>514.034371519149</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860966</v>
+        <v>438.7164434860964</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634658</v>
+        <v>329.4577782634656</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.52130774898983</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920254</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062488</v>
+        <v>56.20152915062485</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721891</v>
+        <v>354.4276051721889</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658087</v>
+        <v>413.6002979658085</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468668</v>
+        <v>424.5470671468666</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374455</v>
+        <v>388.3776244374453</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872492</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947722</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378883</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635566</v>
+        <v>96.75348224635562</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
         <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054713</v>
+        <v>61.5330748605471</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830803</v>
+        <v>5.8472594388308</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656355</v>
+        <v>0.07464586517656351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>669.5976799347675</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M15" t="n">
-        <v>232.1537035940596</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875802</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,31 +33503,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565771</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198417</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811906</v>
+        <v>245.6810352811904</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695375</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264479</v>
+        <v>314.9582252644787</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974624</v>
+        <v>283.9361600974622</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308268</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092699</v>
+        <v>27.38366498092694</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.8732253923147</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437904</v>
+        <v>271.4662640437902</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635335</v>
+        <v>293.2053550635333</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930011</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729189</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872835</v>
+        <v>68.38629016872824</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554475</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501489</v>
+        <v>68.57507023501481</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230887</v>
+        <v>75.59399159230878</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761573</v>
+        <v>81.73343028761565</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569205</v>
+        <v>54.97578017569197</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235236</v>
+        <v>27.78676100235228</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>527.4636460127491</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M15" t="n">
-        <v>90.01966967204125</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042469</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121327</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
